--- a/pred_ohlcv/54_21/2019-10-26 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 DVP ohlcv.xlsx
@@ -2914,7 +2914,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-467115.2191951143</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-467105.2191951143</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-429200.4312469423</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-5674215.510306415</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-5679215.510306415</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-5679204.510306415</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-5804179.322408393</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-5801394.872008393</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-5900178.226508393</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-5900179.719008393</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-5801890.158608393</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-5764828.24861937</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-5764828.24861937</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-5710337.413531911</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-5753447.413531911</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-5722149.43733191</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-5708897.00163191</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-5683720.93613191</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-5925938.29923191</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-5715554.34193191</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-5564973.55683191</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-5834061.69783191</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-5633852.67333191</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-5633852.67333191</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-5641086.70273191</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-4621911.321331911</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-3759574.871631911</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-3832076.92253191</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-3814261.83243191</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-3354054.90243191</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1704262.16633191</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1692329.78253191</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1764314.04153191</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1764314.04153191</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1868328.54433191</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-2923198.87923191</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-2943937.62663191</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-2637562.008131911</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-2859147.818031911</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-2859147.818031911</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2762082.343131911</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-2922789.356231911</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2919529.789231911</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-3575223.619031911</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-4202821.676931911</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-4382333.069131911</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-6016860.920531911</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-5979324.33253191</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-5574521.58333191</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-5573534.90973191</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-5580087.16573191</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-5579987.16573191</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 DVP ohlcv.xlsx
@@ -2914,7 +2914,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-426183.3758951143</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-467115.2191951143</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-467105.2191951143</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-429200.4312469423</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-5676225.996506415</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-5674215.510306415</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-5674215.510306415</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-5679215.510306415</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-5679204.510306415</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-5804179.322408393</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-5801394.872008393</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-5900178.226508393</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-5900179.719008393</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-5801890.158608393</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-5764828.24861937</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-5764828.24861937</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-5709137.413531911</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-5710337.413531911</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-5753447.413531911</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-5722149.43733191</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-5708897.00163191</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-5683720.93613191</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-5925938.29923191</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-5715554.34193191</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-5564973.55683191</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-5834061.69783191</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-5633852.67333191</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-5633852.67333191</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-5641086.70273191</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-4739168.41753191</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-4621911.321331911</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-3759574.871631911</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-3832076.92253191</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-3814261.83243191</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-3354054.90243191</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1704262.16633191</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1692329.78253191</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1764314.04153191</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1764314.04153191</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-1868328.54433191</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-2923198.87923191</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-2943937.62663191</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-2637562.008131911</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-2922789.356231911</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2919529.789231911</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-6016860.920531911</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-5979324.33253191</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-5574521.58333191</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-5573534.90973191</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-5580087.16573191</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-5579987.16573191</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
